--- a/output/BB_11802604000178.xlsx
+++ b/output/BB_11802604000178.xlsx
@@ -1791,10 +1791,10 @@
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>1.837560297</v>
+        <v>1.855666525</v>
       </c>
       <c r="C128">
-        <v>0.02283790959367171</v>
+        <v>0.02936455024963469</v>
       </c>
     </row>
   </sheetData>

--- a/output/BB_11802604000178.xlsx
+++ b/output/BB_11802604000178.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BB MULTIMERCADO LONGO PRAZO GLOBAL VITA PRIVATE FUNDO DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1415 +383,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40329</v>
       </c>
       <c r="B2">
-        <v>0.000451656000000078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
       <c r="B3">
-        <v>0.001206690999999926</v>
-      </c>
-      <c r="C3">
         <v>0.0007546941378642202</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40390</v>
       </c>
       <c r="B4">
-        <v>0.01989741399999989</v>
-      </c>
-      <c r="C4">
         <v>0.01866819625559213</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40421</v>
       </c>
       <c r="B5">
-        <v>0.01999931100000008</v>
-      </c>
-      <c r="C5">
         <v>9.990906791346177e-05</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40451</v>
       </c>
       <c r="B6">
-        <v>0.04261983600000008</v>
-      </c>
-      <c r="C6">
         <v>0.0221770002744639</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40482</v>
       </c>
       <c r="B7">
-        <v>0.05641855899999992</v>
-      </c>
-      <c r="C7">
         <v>0.01323466379935612</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40512</v>
       </c>
       <c r="B8">
-        <v>0.06120676500000011</v>
-      </c>
-      <c r="C8">
         <v>0.00453248947513063</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40543</v>
       </c>
       <c r="B9">
-        <v>0.08049177200000002</v>
-      </c>
-      <c r="C9">
         <v>0.01817271396682041</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40574</v>
       </c>
       <c r="B10">
-        <v>0.09133806799999999</v>
-      </c>
-      <c r="C10">
         <v>0.01003829578444959</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40602</v>
       </c>
       <c r="B11">
-        <v>0.105240851</v>
-      </c>
-      <c r="C11">
         <v>0.01273920832385</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40633</v>
       </c>
       <c r="B12">
-        <v>0.113420163</v>
-      </c>
-      <c r="C12">
         <v>0.007400479264406012</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40663</v>
       </c>
       <c r="B13">
-        <v>0.1268096700000001</v>
-      </c>
-      <c r="C13">
         <v>0.01202556541092581</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40694</v>
       </c>
       <c r="B14">
-        <v>0.1313317039999999</v>
-      </c>
-      <c r="C14">
         <v>0.004013130274254539</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40724</v>
       </c>
       <c r="B15">
-        <v>0.138769838</v>
-      </c>
-      <c r="C15">
         <v>0.006574671224806483</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40755</v>
       </c>
       <c r="B16">
-        <v>0.146750766</v>
-      </c>
-      <c r="C16">
         <v>0.00700837670061305</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40786</v>
       </c>
       <c r="B17">
-        <v>0.1416377719999999</v>
-      </c>
-      <c r="C17">
         <v>-0.004458679384915398</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40816</v>
       </c>
       <c r="B18">
-        <v>0.136450035</v>
-      </c>
-      <c r="C18">
         <v>-0.004544118219662385</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40847</v>
       </c>
       <c r="B19">
-        <v>0.172003908</v>
-      </c>
-      <c r="C19">
         <v>0.03128502961417046</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40877</v>
       </c>
       <c r="B20">
-        <v>0.1645421650000001</v>
-      </c>
-      <c r="C20">
         <v>-0.006366653685253687</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40908</v>
       </c>
       <c r="B21">
-        <v>0.181078885</v>
-      </c>
-      <c r="C21">
         <v>0.01420018999483807</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40939</v>
       </c>
       <c r="B22">
-        <v>0.1991183700000001</v>
-      </c>
-      <c r="C22">
         <v>0.01527373423494915</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40968</v>
       </c>
       <c r="B23">
-        <v>0.2194465249999999</v>
-      </c>
-      <c r="C23">
         <v>0.01695258408892508</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40999</v>
       </c>
       <c r="B24">
-        <v>0.232410555</v>
-      </c>
-      <c r="C24">
         <v>0.01063107707818522</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41029</v>
       </c>
       <c r="B25">
-        <v>0.2412880040000001</v>
-      </c>
-      <c r="C25">
         <v>0.00720332113676192</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41060</v>
       </c>
       <c r="B26">
-        <v>0.236671533</v>
-      </c>
-      <c r="C26">
         <v>-0.003719097409403571</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41090</v>
       </c>
       <c r="B27">
-        <v>0.2450790460000001</v>
-      </c>
-      <c r="C27">
         <v>0.006798501279967617</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41121</v>
       </c>
       <c r="B28">
-        <v>0.2598992950000001</v>
-      </c>
-      <c r="C28">
         <v>0.01190305872355024</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41152</v>
       </c>
       <c r="B29">
-        <v>0.27163015</v>
-      </c>
-      <c r="C29">
         <v>0.009310946554660804</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41182</v>
       </c>
       <c r="B30">
-        <v>0.2836387970000001</v>
-      </c>
-      <c r="C30">
         <v>0.009443506038292693</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41213</v>
       </c>
       <c r="B31">
-        <v>0.2887886829999999</v>
-      </c>
-      <c r="C31">
         <v>0.004011943244498051</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41243</v>
       </c>
       <c r="B32">
-        <v>0.297533378</v>
-      </c>
-      <c r="C32">
         <v>0.006785204677344447</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41274</v>
       </c>
       <c r="B33">
-        <v>0.3083516150000001</v>
-      </c>
-      <c r="C33">
         <v>0.008337540431271995</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41305</v>
       </c>
       <c r="B34">
-        <v>0.328229345</v>
-      </c>
-      <c r="C34">
         <v>0.01519295713178748</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41333</v>
       </c>
       <c r="B35">
-        <v>0.3342796809999999</v>
-      </c>
-      <c r="C35">
         <v>0.004555189224493494</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41364</v>
       </c>
       <c r="B36">
-        <v>0.3444039800000001</v>
-      </c>
-      <c r="C36">
         <v>0.007587838699913529</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41394</v>
       </c>
       <c r="B37">
-        <v>0.3568838219999999</v>
-      </c>
-      <c r="C37">
         <v>0.009282806496898166</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41425</v>
       </c>
       <c r="B38">
-        <v>0.3730968889999999</v>
-      </c>
-      <c r="C38">
         <v>0.01194875105526916</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41455</v>
       </c>
       <c r="B39">
-        <v>0.369126635</v>
-      </c>
-      <c r="C39">
         <v>-0.002891459467868618</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41486</v>
       </c>
       <c r="B40">
-        <v>0.3922093760000001</v>
-      </c>
-      <c r="C40">
         <v>0.01685946384353265</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41517</v>
       </c>
       <c r="B41">
-        <v>0.3953373330000001</v>
-      </c>
-      <c r="C41">
         <v>0.002246757602643923</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41547</v>
       </c>
       <c r="B42">
-        <v>0.4152447699999999</v>
-      </c>
-      <c r="C42">
         <v>0.01426711414450477</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41578</v>
       </c>
       <c r="B43">
-        <v>0.4296177269999999</v>
-      </c>
-      <c r="C43">
         <v>0.01015581000875199</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41608</v>
       </c>
       <c r="B44">
-        <v>0.446439238</v>
-      </c>
-      <c r="C44">
         <v>0.01176643985472903</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41639</v>
       </c>
       <c r="B45">
-        <v>0.4604365429999999</v>
-      </c>
-      <c r="C45">
         <v>0.009677077772968889</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41670</v>
       </c>
       <c r="B46">
-        <v>0.4676425639999999</v>
-      </c>
-      <c r="C46">
         <v>0.004934155499284776</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41698</v>
       </c>
       <c r="B47">
-        <v>0.4850188820000001</v>
-      </c>
-      <c r="C47">
         <v>0.01183961165083791</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41729</v>
       </c>
       <c r="B48">
-        <v>0.493907573</v>
-      </c>
-      <c r="C48">
         <v>0.005985574397564974</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41759</v>
       </c>
       <c r="B49">
-        <v>0.5069984919999999</v>
-      </c>
-      <c r="C49">
         <v>0.00876287076697202</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41790</v>
       </c>
       <c r="B50">
-        <v>0.5243768200000001</v>
-      </c>
-      <c r="C50">
         <v>0.01153174876567831</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41820</v>
       </c>
       <c r="B51">
-        <v>0.5376929930000001</v>
-      </c>
-      <c r="C51">
         <v>0.008735486413392168</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41851</v>
       </c>
       <c r="B52">
-        <v>0.5513166819999999</v>
-      </c>
-      <c r="C52">
         <v>0.008859823815299039</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41882</v>
       </c>
       <c r="B53">
-        <v>0.5631051600000001</v>
-      </c>
-      <c r="C53">
         <v>0.007599014525391468</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41912</v>
       </c>
       <c r="B54">
-        <v>0.571497084</v>
-      </c>
-      <c r="C54">
         <v>0.00536875202945386</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41943</v>
       </c>
       <c r="B55">
-        <v>0.5830233199999999</v>
-      </c>
-      <c r="C55">
         <v>0.007334557675832132</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41973</v>
       </c>
       <c r="B56">
-        <v>0.6063864320000001</v>
-      </c>
-      <c r="C56">
         <v>0.0147585393751497</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
       <c r="B57">
-        <v>0.6255530540000001</v>
-      </c>
-      <c r="C57">
         <v>0.01193151387374258</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42035</v>
       </c>
       <c r="B58">
-        <v>0.6318431550000001</v>
-      </c>
-      <c r="C58">
         <v>0.003869514430502319</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42063</v>
       </c>
       <c r="B59">
-        <v>0.6617409670000001</v>
-      </c>
-      <c r="C59">
         <v>0.01832149855112752</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42094</v>
       </c>
       <c r="B60">
-        <v>0.676456301</v>
-      </c>
-      <c r="C60">
         <v>0.008855371740979612</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42124</v>
       </c>
       <c r="B61">
-        <v>0.684229524</v>
-      </c>
-      <c r="C61">
         <v>0.004636698848257126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42155</v>
       </c>
       <c r="B62">
-        <v>0.7048882919999999</v>
-      </c>
-      <c r="C62">
         <v>0.0122660051409953</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42185</v>
       </c>
       <c r="B63">
-        <v>0.711903245</v>
-      </c>
-      <c r="C63">
         <v>0.004114611516142785</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42216</v>
       </c>
       <c r="B64">
-        <v>0.7380596559999999</v>
-      </c>
-      <c r="C64">
         <v>0.01527914096570337</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42247</v>
       </c>
       <c r="B65">
-        <v>0.7417786159999999</v>
-      </c>
-      <c r="C65">
         <v>0.002139719420539921</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42277</v>
       </c>
       <c r="B66">
-        <v>0.755765287</v>
-      </c>
-      <c r="C66">
         <v>0.008030108345296272</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42308</v>
       </c>
       <c r="B67">
-        <v>0.785162849</v>
-      </c>
-      <c r="C67">
         <v>0.01674344641488523</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42338</v>
       </c>
       <c r="B68">
-        <v>0.806613147</v>
-      </c>
-      <c r="C68">
         <v>0.01201587743774524</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42369</v>
       </c>
       <c r="B69">
-        <v>0.8197522900000001</v>
-      </c>
-      <c r="C69">
         <v>0.007272803821791296</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42400</v>
       </c>
       <c r="B70">
-        <v>0.8062863570000001</v>
-      </c>
-      <c r="C70">
         <v>-0.007399871440744277</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42429</v>
       </c>
       <c r="B71">
-        <v>0.8079669439999999</v>
-      </c>
-      <c r="C71">
         <v>0.0009304100612215205</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42460</v>
       </c>
       <c r="B72">
-        <v>0.8292366120000001</v>
-      </c>
-      <c r="C72">
         <v>0.0117644119935858</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42490</v>
       </c>
       <c r="B73">
-        <v>0.845740392</v>
-      </c>
-      <c r="C73">
         <v>0.009022222653829015</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42521</v>
       </c>
       <c r="B74">
-        <v>0.864312698</v>
-      </c>
-      <c r="C74">
         <v>0.0100622525683991</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42551</v>
       </c>
       <c r="B75">
-        <v>0.8797037080000001</v>
-      </c>
-      <c r="C75">
         <v>0.008255594684577927</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42582</v>
       </c>
       <c r="B76">
-        <v>0.907642914</v>
-      </c>
-      <c r="C76">
         <v>0.01486362232573724</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42613</v>
       </c>
       <c r="B77">
-        <v>0.9248821869999999</v>
-      </c>
-      <c r="C77">
         <v>0.009036949668872918</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42643</v>
       </c>
       <c r="B78">
-        <v>0.941782066</v>
-      </c>
-      <c r="C78">
         <v>0.008779695253110065</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42674</v>
       </c>
       <c r="B79">
-        <v>0.9519214119999999</v>
-      </c>
-      <c r="C79">
         <v>0.005221670432298486</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42704</v>
       </c>
       <c r="B80">
-        <v>0.9680199190000001</v>
-      </c>
-      <c r="C80">
         <v>0.008247518010217947</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42735</v>
       </c>
       <c r="B81">
-        <v>0.997322909</v>
-      </c>
-      <c r="C81">
         <v>0.01488957998702034</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42766</v>
       </c>
       <c r="B82">
-        <v>1.021474278</v>
-      </c>
-      <c r="C82">
         <v>0.01209187001819934</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42794</v>
       </c>
       <c r="B83">
-        <v>1.052412426</v>
-      </c>
-      <c r="C83">
         <v>0.01530474482742838</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42825</v>
       </c>
       <c r="B84">
-        <v>1.054933938</v>
-      </c>
-      <c r="C84">
         <v>0.001228560092531694</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42855</v>
       </c>
       <c r="B85">
-        <v>1.077194201</v>
-      </c>
-      <c r="C85">
         <v>0.01083259300377581</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42886</v>
       </c>
       <c r="B86">
-        <v>1.094637763</v>
-      </c>
-      <c r="C86">
         <v>0.008397655833817685</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42916</v>
       </c>
       <c r="B87">
-        <v>1.114479359</v>
-      </c>
-      <c r="C87">
         <v>0.009472566737067867</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42947</v>
       </c>
       <c r="B88">
-        <v>1.128812781</v>
-      </c>
-      <c r="C88">
         <v>0.006778700363752277</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42978</v>
       </c>
       <c r="B89">
-        <v>1.140276059</v>
-      </c>
-      <c r="C89">
         <v>0.005384822048378979</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43008</v>
       </c>
       <c r="B90">
-        <v>1.161759035</v>
-      </c>
-      <c r="C90">
         <v>0.01003747900167506</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43039</v>
       </c>
       <c r="B91">
-        <v>1.183586881</v>
-      </c>
-      <c r="C91">
         <v>0.01009726137214906</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43069</v>
       </c>
       <c r="B92">
-        <v>1.199234392</v>
-      </c>
-      <c r="C92">
         <v>0.007165966756877529</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43100</v>
       </c>
       <c r="B93">
-        <v>1.212643224</v>
-      </c>
-      <c r="C93">
         <v>0.006097045430344394</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43131</v>
       </c>
       <c r="B94">
-        <v>1.242336543</v>
-      </c>
-      <c r="C94">
         <v>0.01341984043244016</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43159</v>
       </c>
       <c r="B95">
-        <v>1.240119642</v>
-      </c>
-      <c r="C95">
         <v>-0.0009886566790880957</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43190</v>
       </c>
       <c r="B96">
-        <v>1.237359613</v>
-      </c>
-      <c r="C96">
         <v>-0.001232089995664487</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43220</v>
       </c>
       <c r="B97">
-        <v>1.247725443</v>
-      </c>
-      <c r="C97">
         <v>0.004633063875726595</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43251</v>
       </c>
       <c r="B98">
-        <v>1.253273675</v>
-      </c>
-      <c r="C98">
         <v>0.002468376205500666</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43281</v>
       </c>
       <c r="B99">
-        <v>1.259947014</v>
-      </c>
-      <c r="C99">
         <v>0.00296161938695727</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43312</v>
       </c>
       <c r="B100">
-        <v>1.282706528</v>
-      </c>
-      <c r="C100">
         <v>0.01007081752758276</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43343</v>
       </c>
       <c r="B101">
-        <v>1.303048348</v>
-      </c>
-      <c r="C101">
         <v>0.00891127254006796</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43373</v>
       </c>
       <c r="B102">
-        <v>1.307919946</v>
-      </c>
-      <c r="C102">
         <v>0.002115282557672238</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43404</v>
       </c>
       <c r="B103">
-        <v>1.279318977</v>
-      </c>
-      <c r="C103">
         <v>-0.01239253079361369</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43434</v>
       </c>
       <c r="B104">
-        <v>1.298651409</v>
-      </c>
-      <c r="C104">
         <v>0.008481670268654096</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43465</v>
       </c>
       <c r="B105">
-        <v>1.313293837</v>
-      </c>
-      <c r="C105">
         <v>0.00637000805892951</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43496</v>
       </c>
       <c r="B106">
-        <v>1.337976496</v>
-      </c>
-      <c r="C106">
         <v>0.01066991949107954</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43524</v>
       </c>
       <c r="B107">
-        <v>1.380076952</v>
-      </c>
-      <c r="C107">
         <v>0.01800721952167983</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43555</v>
       </c>
       <c r="B108">
-        <v>1.391401941</v>
-      </c>
-      <c r="C108">
         <v>0.004758244892243191</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43585</v>
       </c>
       <c r="B109">
-        <v>1.42228363</v>
-      </c>
-      <c r="C109">
         <v>0.01291363382731325</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43616</v>
       </c>
       <c r="B110">
-        <v>1.376732848</v>
-      </c>
-      <c r="C110">
         <v>-0.01880489197708024</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43646</v>
       </c>
       <c r="B111">
-        <v>1.441263555</v>
-      </c>
-      <c r="C111">
         <v>0.02715101407139708</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43677</v>
       </c>
       <c r="B112">
-        <v>1.47459432</v>
-      </c>
-      <c r="C112">
         <v>0.01365307933743365</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43708</v>
       </c>
       <c r="B113">
-        <v>1.463501002</v>
-      </c>
-      <c r="C113">
         <v>-0.004482883481281008</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43738</v>
       </c>
       <c r="B114">
-        <v>1.474267906</v>
-      </c>
-      <c r="C114">
         <v>0.004370570172798294</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43769</v>
       </c>
       <c r="B115">
-        <v>1.499362007</v>
-      </c>
-      <c r="C115">
         <v>0.01014203067466868</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43799</v>
       </c>
       <c r="B116">
-        <v>1.543114574</v>
-      </c>
-      <c r="C116">
         <v>0.01750549415309233</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43830</v>
       </c>
       <c r="B117">
-        <v>1.591948669</v>
-      </c>
-      <c r="C117">
         <v>0.01920247538166953</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43861</v>
       </c>
       <c r="B118">
-        <v>1.60653837</v>
-      </c>
-      <c r="C118">
         <v>0.005628854141478179</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43890</v>
       </c>
       <c r="B119">
-        <v>1.51633807</v>
-      </c>
-      <c r="C119">
         <v>-0.03460539888388436</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43921</v>
       </c>
       <c r="B120">
-        <v>1.210009314</v>
-      </c>
-      <c r="C120">
         <v>-0.1217359303394396</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43951</v>
       </c>
       <c r="B121">
-        <v>1.376502075</v>
-      </c>
-      <c r="C121">
         <v>0.07533577344914288</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>1.461933354</v>
-      </c>
-      <c r="C122">
         <v>0.03594832922668512</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44012</v>
       </c>
       <c r="B123">
-        <v>1.532546426</v>
-      </c>
-      <c r="C123">
         <v>0.02868195919490346</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44043</v>
       </c>
       <c r="B124">
-        <v>1.639908834</v>
-      </c>
-      <c r="C124">
         <v>0.04239306608470428</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>44074</v>
       </c>
       <c r="B125">
-        <v>1.748285589</v>
-      </c>
-      <c r="C125">
         <v>0.04105321880975232</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>44104</v>
       </c>
       <c r="B126">
-        <v>1.760216556</v>
-      </c>
-      <c r="C126">
         <v>0.004341239879783076</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44135</v>
       </c>
       <c r="B127">
-        <v>1.774203293</v>
-      </c>
-      <c r="C127">
         <v>0.005067260744304969</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>1.855666525</v>
-      </c>
-      <c r="C128">
-        <v>0.02936455024963469</v>
+        <v>0.02801335186793752</v>
       </c>
     </row>
   </sheetData>
